--- a/Clase_06/Base_Transporte.xlsx
+++ b/Clase_06/Base_Transporte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2024-I/Series-Tiempo-2023/Clase_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3423B57-781C-694E-92F7-22BC243FEC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7228FE81-F9D2-FD48-AE96-67CFA7207278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="500" windowWidth="16000" windowHeight="18880" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -109,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:F282"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1838,15 +1843,19 @@
         <v>38657</v>
       </c>
       <c r="B72">
+        <f>ROUND(AVERAGE(B71,B73),0)</f>
         <v>1694174</v>
       </c>
       <c r="C72">
+        <f>ROUND(AVERAGE(C71,C73),0)</f>
         <v>886207</v>
       </c>
       <c r="D72">
+        <f>ROUND(AVERAGE(D71,D73),0)</f>
         <v>30673</v>
       </c>
       <c r="E72">
+        <f>ROUND(AVERAGE(E71,E73),0)</f>
         <v>9595</v>
       </c>
       <c r="F72">
@@ -5278,7 +5287,7 @@
         <v>43891</v>
       </c>
       <c r="B244">
-        <v>3008278</v>
+        <v>3008295</v>
       </c>
       <c r="C244">
         <v>1637074</v>
@@ -5298,10 +5307,10 @@
         <v>43922</v>
       </c>
       <c r="B245">
-        <v>409163</v>
+        <v>406742</v>
       </c>
       <c r="C245">
-        <v>64774</v>
+        <v>67507</v>
       </c>
       <c r="D245">
         <v>5878</v>
@@ -5324,7 +5333,7 @@
         <v>59205</v>
       </c>
       <c r="D246">
-        <v>4785</v>
+        <v>4779</v>
       </c>
       <c r="E246">
         <v>1416</v>
@@ -5338,16 +5347,16 @@
         <v>43983</v>
       </c>
       <c r="B247">
-        <v>890377</v>
+        <v>890203</v>
       </c>
       <c r="C247">
-        <v>151602</v>
+        <v>151552</v>
       </c>
       <c r="D247">
-        <v>9604</v>
+        <v>9599</v>
       </c>
       <c r="E247">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F247">
         <v>44.780954999999999</v>
@@ -5358,16 +5367,16 @@
         <v>44013</v>
       </c>
       <c r="B248">
-        <v>1677953</v>
+        <v>1678137</v>
       </c>
       <c r="C248">
-        <v>389280</v>
+        <v>389249</v>
       </c>
       <c r="D248">
         <v>17126</v>
       </c>
       <c r="E248">
-        <v>4077</v>
+        <v>4074</v>
       </c>
       <c r="F248">
         <v>58.756520999999999</v>
@@ -5378,16 +5387,16 @@
         <v>44044</v>
       </c>
       <c r="B249">
-        <v>2126479</v>
+        <v>2126572</v>
       </c>
       <c r="C249">
-        <v>526003</v>
+        <v>525920</v>
       </c>
       <c r="D249">
-        <v>21295</v>
+        <v>21294</v>
       </c>
       <c r="E249">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="F249">
         <v>65.016011000000006</v>
@@ -5398,16 +5407,16 @@
         <v>44075</v>
       </c>
       <c r="B250">
-        <v>2328190</v>
+        <v>2328193</v>
       </c>
       <c r="C250">
-        <v>524046</v>
+        <v>524001</v>
       </c>
       <c r="D250">
         <v>22300</v>
       </c>
       <c r="E250">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="F250">
         <v>66.219211999999999</v>
@@ -5418,16 +5427,16 @@
         <v>44105</v>
       </c>
       <c r="B251">
-        <v>2724258</v>
+        <v>2724198</v>
       </c>
       <c r="C251">
         <v>697896</v>
       </c>
       <c r="D251">
-        <v>24701</v>
+        <v>24707</v>
       </c>
       <c r="E251">
-        <v>6742</v>
+        <v>6738</v>
       </c>
       <c r="F251">
         <v>74.872131999999993</v>
@@ -5438,13 +5447,13 @@
         <v>44136</v>
       </c>
       <c r="B252">
-        <v>2934921</v>
+        <v>2935138</v>
       </c>
       <c r="C252">
-        <v>864042</v>
+        <v>864033</v>
       </c>
       <c r="D252">
-        <v>26203</v>
+        <v>26206</v>
       </c>
       <c r="E252">
         <v>8609</v>
@@ -5478,16 +5487,16 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2747947</v>
+        <v>2685767</v>
       </c>
       <c r="C254">
-        <v>833950</v>
+        <v>1185142</v>
       </c>
       <c r="D254">
-        <v>26930</v>
+        <v>26927</v>
       </c>
       <c r="E254">
-        <v>11514</v>
+        <v>11535</v>
       </c>
       <c r="F254">
         <v>41.033642</v>
@@ -5498,16 +5507,16 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2250155</v>
+        <v>2214034</v>
       </c>
       <c r="C255">
-        <v>642682</v>
+        <v>712193</v>
       </c>
       <c r="D255">
-        <v>20717</v>
+        <v>20713</v>
       </c>
       <c r="E255">
-        <v>9036</v>
+        <v>9037</v>
       </c>
       <c r="F255">
         <v>50.436321</v>
@@ -5518,16 +5527,16 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3215499</v>
+        <v>3162379</v>
       </c>
       <c r="C256">
-        <v>1091295</v>
+        <v>1130645</v>
       </c>
       <c r="D256">
-        <v>26010</v>
+        <v>25986</v>
       </c>
       <c r="E256">
-        <v>10584</v>
+        <v>10579</v>
       </c>
       <c r="F256">
         <v>65.449779000000007</v>
@@ -5538,16 +5547,16 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3523462</v>
+        <v>3452944</v>
       </c>
       <c r="C257">
-        <v>1234685</v>
+        <v>1377367</v>
       </c>
       <c r="D257">
-        <v>29349</v>
+        <v>29364</v>
       </c>
       <c r="E257">
-        <v>10690</v>
+        <v>10723</v>
       </c>
       <c r="F257">
         <v>62.577359000000001</v>
@@ -5558,16 +5567,16 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3868612</v>
+        <v>3784266</v>
       </c>
       <c r="C258">
-        <v>1596997</v>
+        <v>1656557</v>
       </c>
       <c r="D258">
-        <v>30076</v>
+        <v>30061</v>
       </c>
       <c r="E258">
-        <v>12169</v>
+        <v>12198</v>
       </c>
       <c r="F258">
         <v>62.689974999999997</v>
@@ -5578,16 +5587,16 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3885189</v>
+        <v>3791459</v>
       </c>
       <c r="C259">
-        <v>1783107</v>
+        <v>1844126</v>
       </c>
       <c r="D259">
-        <v>30069</v>
+        <v>30046</v>
       </c>
       <c r="E259">
-        <v>13040</v>
+        <v>13025</v>
       </c>
       <c r="F259">
         <v>63.410818999999996</v>
@@ -5598,16 +5607,16 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4446637</v>
+        <v>4352913</v>
       </c>
       <c r="C260">
-        <v>1970731</v>
+        <v>2117022</v>
       </c>
       <c r="D260">
-        <v>34437</v>
+        <v>34413</v>
       </c>
       <c r="E260">
-        <v>14275</v>
+        <v>14272</v>
       </c>
       <c r="F260">
         <v>69.822068999999999</v>
@@ -5618,16 +5627,16 @@
         <v>44409</v>
       </c>
       <c r="B261">
-        <v>4061957</v>
+        <v>3961404</v>
       </c>
       <c r="C261">
-        <v>1628732</v>
+        <v>1954690</v>
       </c>
       <c r="D261">
-        <v>34324</v>
+        <v>34311</v>
       </c>
       <c r="E261">
-        <v>13767</v>
+        <v>13766</v>
       </c>
       <c r="F261">
         <v>67.964499000000004</v>
@@ -5638,16 +5647,16 @@
         <v>44440</v>
       </c>
       <c r="B262">
-        <v>3653971</v>
+        <v>3577845</v>
       </c>
       <c r="C262">
-        <v>1392808</v>
+        <v>1483917</v>
       </c>
       <c r="D262">
-        <v>30171</v>
+        <v>30181</v>
       </c>
       <c r="E262">
-        <v>12192</v>
+        <v>12193</v>
       </c>
       <c r="F262">
         <v>70.154246999999998</v>
@@ -5658,16 +5667,16 @@
         <v>44470</v>
       </c>
       <c r="B263">
-        <v>4204904</v>
+        <v>4118307</v>
       </c>
       <c r="C263">
-        <v>1731069</v>
+        <v>1719971</v>
       </c>
       <c r="D263">
-        <v>32974</v>
+        <v>33003</v>
       </c>
       <c r="E263">
-        <v>13269</v>
+        <v>13231</v>
       </c>
       <c r="F263">
         <v>78.122951999999998</v>
@@ -5678,16 +5687,16 @@
         <v>44501</v>
       </c>
       <c r="B264">
-        <v>4395259</v>
+        <v>4313721</v>
       </c>
       <c r="C264">
-        <v>1973833</v>
+        <v>1924449</v>
       </c>
       <c r="D264">
-        <v>33291</v>
+        <v>33312</v>
       </c>
       <c r="E264">
-        <v>14603</v>
+        <v>14565</v>
       </c>
       <c r="F264">
         <v>78.483883000000006</v>
@@ -5698,16 +5707,16 @@
         <v>44531</v>
       </c>
       <c r="B265">
-        <v>4768202</v>
+        <v>4681213</v>
       </c>
       <c r="C265">
-        <v>2386847</v>
+        <v>2034286</v>
       </c>
       <c r="D265">
-        <v>36234</v>
+        <v>36208</v>
       </c>
       <c r="E265">
-        <v>17048</v>
+        <v>17016</v>
       </c>
       <c r="F265">
         <v>84.154004</v>
@@ -5718,16 +5727,16 @@
         <v>44562</v>
       </c>
       <c r="B266">
-        <v>3854676</v>
+        <v>3767905</v>
       </c>
       <c r="C266">
-        <v>1839209</v>
+        <v>2094697</v>
       </c>
       <c r="D266">
-        <v>33193</v>
+        <v>33218</v>
       </c>
       <c r="E266">
-        <v>16690</v>
+        <v>16683</v>
       </c>
       <c r="F266">
         <v>70.563670000000002</v>
@@ -5738,16 +5747,16 @@
         <v>44593</v>
       </c>
       <c r="B267">
-        <v>3612447</v>
+        <v>3535885</v>
       </c>
       <c r="C267">
-        <v>1820772</v>
+        <v>1838837</v>
       </c>
       <c r="D267">
-        <v>28461</v>
+        <v>28554</v>
       </c>
       <c r="E267">
-        <v>14526</v>
+        <v>14490</v>
       </c>
       <c r="F267">
         <v>72.052554999999998</v>
@@ -5758,16 +5767,16 @@
         <v>44621</v>
       </c>
       <c r="B268">
-        <v>4549465</v>
+        <v>4438186</v>
       </c>
       <c r="C268">
-        <v>2310789</v>
+        <v>2440988</v>
       </c>
       <c r="D268">
-        <v>33596</v>
+        <v>33627</v>
       </c>
       <c r="E268">
-        <v>17062</v>
+        <v>17035</v>
       </c>
       <c r="F268">
         <v>88.358373999999998</v>
@@ -5778,16 +5787,16 @@
         <v>44652</v>
       </c>
       <c r="B269">
-        <v>4778420</v>
+        <v>4701734</v>
       </c>
       <c r="C269">
-        <v>2136321</v>
+        <v>2325751</v>
       </c>
       <c r="D269">
-        <v>35439</v>
+        <v>35456</v>
       </c>
       <c r="E269">
-        <v>15984</v>
+        <v>15966</v>
       </c>
       <c r="F269">
         <v>82.897273999999996</v>
@@ -5798,16 +5807,16 @@
         <v>44682</v>
       </c>
       <c r="B270">
-        <v>4908699</v>
+        <v>4424819</v>
       </c>
       <c r="C270">
-        <v>2076840</v>
+        <v>2039602</v>
       </c>
       <c r="D270">
-        <v>35713</v>
+        <v>35723</v>
       </c>
       <c r="E270">
-        <v>15280</v>
+        <v>15245</v>
       </c>
       <c r="F270">
         <v>91.245641000000006</v>
@@ -5818,16 +5827,16 @@
         <v>44713</v>
       </c>
       <c r="B271">
-        <v>4701641</v>
+        <v>4224210</v>
       </c>
       <c r="C271">
-        <v>2243517</v>
+        <v>2079785</v>
       </c>
       <c r="D271">
-        <v>35136</v>
+        <v>35197</v>
       </c>
       <c r="E271">
-        <v>15424</v>
+        <v>15389</v>
       </c>
       <c r="F271">
         <v>88.424030000000002</v>
@@ -5838,16 +5847,16 @@
         <v>44743</v>
       </c>
       <c r="B272">
-        <v>5372852</v>
+        <v>5262601</v>
       </c>
       <c r="C272">
-        <v>2430787</v>
+        <v>2549172</v>
       </c>
       <c r="D272">
-        <v>39412</v>
+        <v>39448</v>
       </c>
       <c r="E272">
-        <v>16281</v>
+        <v>16422</v>
       </c>
       <c r="F272">
         <v>80.680661999999998</v>
@@ -5858,16 +5867,16 @@
         <v>44774</v>
       </c>
       <c r="B273">
-        <v>5261481</v>
+        <v>5148560</v>
       </c>
       <c r="C273">
-        <v>2110618</v>
+        <v>2372056</v>
       </c>
       <c r="D273">
-        <v>39083</v>
+        <v>39134</v>
       </c>
       <c r="E273">
-        <v>15507</v>
+        <v>15466</v>
       </c>
       <c r="F273">
         <v>90.184646999999998</v>
@@ -5878,16 +5887,16 @@
         <v>44805</v>
       </c>
       <c r="B274">
-        <v>4704494</v>
+        <v>4618052</v>
       </c>
       <c r="C274">
-        <v>1797014</v>
+        <v>1854600</v>
       </c>
       <c r="D274">
-        <v>35544</v>
+        <v>35597</v>
       </c>
       <c r="E274">
-        <v>13085</v>
+        <v>13049</v>
       </c>
       <c r="F274">
         <v>88.794501999999994</v>
@@ -5898,16 +5907,16 @@
         <v>44835</v>
       </c>
       <c r="B275">
-        <v>5162631</v>
+        <v>5062571</v>
       </c>
       <c r="C275">
-        <v>2089547</v>
+        <v>1996217</v>
       </c>
       <c r="D275">
-        <v>37767</v>
+        <v>37793</v>
       </c>
       <c r="E275">
-        <v>13887</v>
+        <v>13883</v>
       </c>
       <c r="F275">
         <v>95.094480000000004</v>
@@ -5918,16 +5927,16 @@
         <v>44866</v>
       </c>
       <c r="B276">
-        <v>5183061</v>
+        <v>5085319</v>
       </c>
       <c r="C276">
-        <v>2316023</v>
+        <v>2271709</v>
       </c>
       <c r="D276">
-        <v>37393</v>
+        <v>37482</v>
       </c>
       <c r="E276">
-        <v>15736</v>
+        <v>15727</v>
       </c>
       <c r="F276">
         <v>91.831197000000003</v>
@@ -5938,16 +5947,16 @@
         <v>44896</v>
       </c>
       <c r="B277">
-        <v>5456045</v>
+        <v>5359335</v>
       </c>
       <c r="C277">
-        <v>2709516</v>
+        <v>2417631</v>
       </c>
       <c r="D277">
-        <v>39644</v>
+        <v>39660</v>
       </c>
       <c r="E277">
-        <v>17827</v>
+        <v>17768</v>
       </c>
       <c r="F277">
         <v>89.981292999999994</v>
@@ -5958,16 +5967,16 @@
         <v>44927</v>
       </c>
       <c r="B278">
-        <v>5058367</v>
+        <v>4947266</v>
       </c>
       <c r="C278">
-        <v>2533314</v>
+        <v>2727461</v>
       </c>
       <c r="D278">
-        <v>38226</v>
+        <v>38218</v>
       </c>
       <c r="E278">
-        <v>17747</v>
+        <v>17759</v>
       </c>
       <c r="F278">
         <v>87.266174000000007</v>
@@ -5978,16 +5987,16 @@
         <v>44958</v>
       </c>
       <c r="B279">
-        <v>4515723</v>
+        <v>4417727</v>
       </c>
       <c r="C279">
-        <v>2277995</v>
+        <v>2376010</v>
       </c>
       <c r="D279">
-        <v>33571</v>
+        <v>33574</v>
       </c>
       <c r="E279">
-        <v>15756</v>
+        <v>15755</v>
       </c>
       <c r="F279">
         <v>86.696037000000004</v>
@@ -5998,16 +6007,16 @@
         <v>44986</v>
       </c>
       <c r="B280">
-        <v>5287795</v>
+        <v>5180113</v>
       </c>
       <c r="C280">
-        <v>2555185</v>
+        <v>2779224</v>
       </c>
       <c r="D280">
-        <v>37190</v>
+        <v>37541</v>
       </c>
       <c r="E280">
-        <v>17796</v>
+        <v>17742</v>
       </c>
       <c r="F280">
         <v>99.399033000000003</v>
@@ -6018,16 +6027,16 @@
         <v>45017</v>
       </c>
       <c r="B281">
-        <v>5428414</v>
+        <v>5324221</v>
       </c>
       <c r="C281">
-        <v>2302621</v>
+        <v>2552374</v>
       </c>
       <c r="D281">
-        <v>37443</v>
+        <v>37473</v>
       </c>
       <c r="E281">
-        <v>16325</v>
+        <v>16317</v>
       </c>
       <c r="F281">
         <v>86.639757000000003</v>
@@ -6038,19 +6047,279 @@
         <v>45047</v>
       </c>
       <c r="B282">
-        <v>5351191</v>
+        <v>5245493</v>
       </c>
       <c r="C282">
-        <v>2161952</v>
+        <v>2285353</v>
       </c>
       <c r="D282">
-        <v>37841</v>
+        <v>37871</v>
       </c>
       <c r="E282">
-        <v>15519</v>
+        <v>15492</v>
       </c>
       <c r="F282">
         <v>96.485574999999997</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B283">
+        <v>5206599</v>
+      </c>
+      <c r="C283">
+        <v>2337458</v>
+      </c>
+      <c r="D283">
+        <v>37605</v>
+      </c>
+      <c r="E283">
+        <v>15661</v>
+      </c>
+      <c r="F283">
+        <v>92.973425000000006</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B284">
+        <v>5931271</v>
+      </c>
+      <c r="C284">
+        <v>2740945</v>
+      </c>
+      <c r="D284">
+        <v>40760</v>
+      </c>
+      <c r="E284">
+        <v>16852</v>
+      </c>
+      <c r="F284">
+        <v>90.692403999999996</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B285">
+        <v>5957266</v>
+      </c>
+      <c r="C285">
+        <v>2447602</v>
+      </c>
+      <c r="D285">
+        <v>40938</v>
+      </c>
+      <c r="E285">
+        <v>15854</v>
+      </c>
+      <c r="F285">
+        <v>97.667491999999996</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B286">
+        <v>5046561</v>
+      </c>
+      <c r="C286">
+        <v>1917634</v>
+      </c>
+      <c r="D286">
+        <v>36229</v>
+      </c>
+      <c r="E286">
+        <v>13192</v>
+      </c>
+      <c r="F286">
+        <v>95.458911000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B287">
+        <v>5397795</v>
+      </c>
+      <c r="C287">
+        <v>2074694</v>
+      </c>
+      <c r="D287">
+        <v>37486</v>
+      </c>
+      <c r="E287">
+        <v>14370</v>
+      </c>
+      <c r="F287">
+        <v>97.568899999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B288">
+        <v>5250222</v>
+      </c>
+      <c r="C288">
+        <v>2390581</v>
+      </c>
+      <c r="D288">
+        <v>36487</v>
+      </c>
+      <c r="E288">
+        <v>16147</v>
+      </c>
+      <c r="F288">
+        <v>93.718683999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B289">
+        <v>5379789</v>
+      </c>
+      <c r="C289">
+        <v>2715016</v>
+      </c>
+      <c r="D289">
+        <v>37638</v>
+      </c>
+      <c r="E289">
+        <v>19700</v>
+      </c>
+      <c r="F289">
+        <v>90.620349000000004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B290">
+        <v>4640553</v>
+      </c>
+      <c r="C290">
+        <v>2977074</v>
+      </c>
+      <c r="D290">
+        <v>32842</v>
+      </c>
+      <c r="E290">
+        <v>19164</v>
+      </c>
+      <c r="F290">
+        <v>88.383837999999997</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B291">
+        <v>4229370</v>
+      </c>
+      <c r="C291">
+        <v>2679200</v>
+      </c>
+      <c r="D291">
+        <v>29957</v>
+      </c>
+      <c r="E291">
+        <v>17861</v>
+      </c>
+      <c r="F291">
+        <v>92.368690999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B292">
+        <v>4691197</v>
+      </c>
+      <c r="C292">
+        <v>3128463</v>
+      </c>
+      <c r="D292">
+        <v>32465</v>
+      </c>
+      <c r="E292">
+        <v>19843</v>
+      </c>
+      <c r="F292">
+        <v>90.667167000000006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B293">
+        <v>4819596</v>
+      </c>
+      <c r="C293">
+        <v>2633949</v>
+      </c>
+      <c r="D293">
+        <v>34774</v>
+      </c>
+      <c r="E293">
+        <v>17137</v>
+      </c>
+      <c r="F293">
+        <v>96.878736000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B294">
+        <v>5066232</v>
+      </c>
+      <c r="C294">
+        <v>2370225</v>
+      </c>
+      <c r="D294">
+        <v>36232</v>
+      </c>
+      <c r="E294">
+        <v>15768</v>
+      </c>
+      <c r="F294">
+        <v>101.016462</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B295">
+        <v>4955045</v>
+      </c>
+      <c r="C295">
+        <v>2418449</v>
+      </c>
+      <c r="D295">
+        <v>35407</v>
+      </c>
+      <c r="E295">
+        <v>15963</v>
+      </c>
+      <c r="F295">
+        <v>82.302486999999999</v>
       </c>
     </row>
   </sheetData>
